--- a/data/atenuacions_generacions_2.xlsx
+++ b/data/atenuacions_generacions_2.xlsx
@@ -1253,13 +1253,13 @@
         <v>10.06138234998703</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>6.32</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F16" t="n">
         <v>90</v>
@@ -1277,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L16" t="n">
-        <v>83.6666666666667</v>
+        <v>58.84</v>
       </c>
       <c r="M16" t="n">
-        <v>83.66666666666667</v>
+        <v>89.05</v>
       </c>
       <c r="N16" t="n">
-        <v>83.66666666666667</v>
+        <v>89.41</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2295579686233767</v>
+        <v>0.0013</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>11.6</v>
+        <v>11.59</v>
       </c>
       <c r="L59" t="n">
         <v>28</v>
@@ -3525,7 +3525,7 @@
         <v>28</v>
       </c>
       <c r="O59" t="n">
-        <v>0.960506475055147</v>
+        <v>0.9605064750551471</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>

--- a/data/atenuacions_generacions_2.xlsx
+++ b/data/atenuacions_generacions_2.xlsx
@@ -1253,13 +1253,13 @@
         <v>10.06138234998703</v>
       </c>
       <c r="C16" t="n">
-        <v>6.32</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.33</v>
+        <v>0.02811922152480409</v>
       </c>
       <c r="F16" t="n">
         <v>90</v>
@@ -1274,22 +1274,22 @@
         <v>90</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.467829724461358</v>
       </c>
       <c r="K16" t="n">
-        <v>38</v>
+        <v>25.97240221136915</v>
       </c>
       <c r="L16" t="n">
-        <v>58.84</v>
+        <v>99.99101340844878</v>
       </c>
       <c r="M16" t="n">
-        <v>89.05</v>
+        <v>99.97761513754693</v>
       </c>
       <c r="N16" t="n">
-        <v>89.41</v>
+        <v>69.65039530032158</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0013</v>
+        <v>0.001668168449664589</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
